--- a/lora-helium-moisture-sensor/BOM/LORA_HELIUM_BILL OF MATERIALS.xlsx
+++ b/lora-helium-moisture-sensor/BOM/LORA_HELIUM_BILL OF MATERIALS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\kicad6\KICAD 6.0.0\PROJECTS\lora_helium_moisture_sensor\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\kicad6\KICAD 6.0.0\PROJECTS\lora_helium_moisture_sensor\lora-helium-moisture-sensor\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9793881-0BCC-429C-B68C-B4D8186E36A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B484B10-7C5F-42D3-9FD1-F7E37DB34880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D6AFB70-65C4-4EB9-82FD-881A01E3096C}"/>
+    <workbookView xWindow="3120" yWindow="2772" windowWidth="17280" windowHeight="8976" xr2:uid="{3D6AFB70-65C4-4EB9-82FD-881A01E3096C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t xml:space="preserve">    C1</t>
   </si>
@@ -71,15 +71,6 @@
     <t xml:space="preserve">    U2</t>
   </si>
   <si>
-    <t>ESP32-DEVKIT-V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    U3</t>
-  </si>
-  <si>
-    <t>RFM95W-915S2</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -122,20 +113,31 @@
     <t>LCSC/DIGIKEY</t>
   </si>
   <si>
-    <t>https://www.amazon.com/ESP32-WROOM-32-Development-ESP-32S-Bluetooth-Arduino/dp/B084KWNMM4</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/RFM95W-Transceiver-Compatible-Technical-Support/dp/B07KZPQ4GB</t>
+    <t>HELTEC_WIRELESS_STICK_LITE</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/Heltec-2020-SX1276-wireless-stick-lite_1600184492991.html</t>
+  </si>
+  <si>
+    <t>ALIBABA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,14 +166,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD74864-D5E1-40DD-A2E4-A77CAD7EB4DC}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,19 +505,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -523,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,7 +545,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -551,13 +559,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -571,10 +579,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -588,10 +596,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -605,10 +613,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -619,36 +627,22 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{0E5D113A-A281-45B1-BB8F-2AC907B4222C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>